--- a/InputData/indst/RIFF/Recipient Industrial Fuel Fractions.xlsx
+++ b/InputData/indst/RIFF/Recipient Industrial Fuel Fractions.xlsx
@@ -1,29 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdeng\Dropbox (Energy Innovation)\EU EPS\InputData\indst\RIFF\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197E3D60-C545-42CF-9161-A7FF7E3CFE41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="21075" windowHeight="11055" tabRatio="647"/>
+    <workbookView xWindow="39960" yWindow="5055" windowWidth="20625" windowHeight="14865" tabRatio="647" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="Electrification Potential" sheetId="15" r:id="rId2"/>
-    <sheet name="RIFF-cement" sheetId="7" r:id="rId3"/>
-    <sheet name="RIFF-ngps" sheetId="8" r:id="rId4"/>
-    <sheet name="RIFF-steel" sheetId="9" r:id="rId5"/>
-    <sheet name="RIFF-chemicals" sheetId="10" r:id="rId6"/>
-    <sheet name="RIFF-mining" sheetId="11" r:id="rId7"/>
-    <sheet name="RIFF-waste-mgmt" sheetId="12" r:id="rId8"/>
-    <sheet name="RIFF-agriculture" sheetId="13" r:id="rId9"/>
-    <sheet name="RIFF-other-industries" sheetId="14" r:id="rId10"/>
+    <sheet name="Electrification Potential US" sheetId="15" r:id="rId2"/>
+    <sheet name="Electrification Potential EU" sheetId="16" r:id="rId3"/>
+    <sheet name="RIFF-cement" sheetId="7" r:id="rId4"/>
+    <sheet name="RIFF-ngps" sheetId="8" r:id="rId5"/>
+    <sheet name="RIFF-steel" sheetId="9" r:id="rId6"/>
+    <sheet name="RIFF-chemicals" sheetId="10" r:id="rId7"/>
+    <sheet name="RIFF-mining" sheetId="11" r:id="rId8"/>
+    <sheet name="RIFF-waste-mgmt" sheetId="12" r:id="rId9"/>
+    <sheet name="RIFF-agriculture" sheetId="13" r:id="rId10"/>
+    <sheet name="RIFF-other-industries" sheetId="14" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="165">
   <si>
     <t>Source:</t>
   </si>
@@ -394,9 +412,6 @@
     <t>Fraction Electrification Potential</t>
   </si>
   <si>
-    <t>For the U.S., we use this policy to represent electrification of industry, with hydrogen constituting the rest of the</t>
-  </si>
-  <si>
     <t>potential. This is because electrification has some technical limitations, whereas hydrogen technologies</t>
   </si>
   <si>
@@ -428,12 +443,108 @@
   </si>
   <si>
     <t>of site energy use. Therefore, a electrification potential of 0.1 is conservatively used</t>
+  </si>
+  <si>
+    <t>Potsdam Institute for Climate Impact Research</t>
+  </si>
+  <si>
+    <t>Power-to-Heat: the potential for direct electrification of industry</t>
+  </si>
+  <si>
+    <t>https://www.iamconsortium.org/wp-content/uploads/2020/03/Madeddu_OK.pdf</t>
+  </si>
+  <si>
+    <t>For the EU, we use this policy to represent electrification of industry, with hydrogen or other Power-to-X technologies constituting the rest of the</t>
+  </si>
+  <si>
+    <t>Iron&amp;Steel</t>
+  </si>
+  <si>
+    <t>Ceramics &amp; Glass</t>
+  </si>
+  <si>
+    <t>Paper</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>Wood</t>
+  </si>
+  <si>
+    <t>Textiles</t>
+  </si>
+  <si>
+    <t>Machinery Equipment</t>
+  </si>
+  <si>
+    <t>Transport Equipment</t>
+  </si>
+  <si>
+    <t>Non-ferrous metals</t>
+  </si>
+  <si>
+    <t>Useful Energy share of industry sectors according to source</t>
+  </si>
+  <si>
+    <t>Weighted Average other industries</t>
+  </si>
+  <si>
+    <t>Share of non-ferrous metals on other industries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Share of other industries on useful energy share </t>
+  </si>
+  <si>
+    <t>own assumption, as electricity is the only fuel used according to BAU Industrial Fuel Use before CCS variable</t>
+  </si>
+  <si>
+    <t>Direct electrification potential of industry sectors according to source: Medium electrification scenario based on existing eletrification technologies (Grey line)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slide 6 for direct electrification of potential of industry, yellow line represents status quo of direct electrification, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">grey line represents medium direct electrification scenario with already known technologies today, </t>
+  </si>
+  <si>
+    <t>red line represents max direct electrification potential including new technologies that are still in technology development</t>
+  </si>
+  <si>
+    <t>Electrification potential other industries (Direct electrification Max)</t>
+  </si>
+  <si>
+    <t>Direct electrification potential of industry sectors according to EPS category (based on max direct electrification)</t>
+  </si>
+  <si>
+    <t>Direct electrification potential of industry sectors according to source max electrification potential (Red line)</t>
+  </si>
+  <si>
+    <t>Sources:</t>
+  </si>
+  <si>
+    <t>For water and waste management we assume the processes to be already fully electrified (100%)</t>
+  </si>
+  <si>
+    <t>as electricity is the only fuel going into that sector according to the BAU Industrial Fuel Use before CCS variable</t>
+  </si>
+  <si>
+    <t>grey line represents medium direct electrification scenario with already known technologies today, red line defines maximum potential of direct electrification</t>
+  </si>
+  <si>
+    <t>Electrification potential other industries (Direct electrification medium)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For natural gas and petroleum systems, mining, and agriculture we did not have data for the EU, so we use data from the US. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -480,12 +591,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -502,7 +625,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -529,6 +652,16 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -565,7 +698,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -586,6 +725,235 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>251461</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>53341</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2657844</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Grafik 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DF321D9-87EC-4486-87F1-00EA027F2395}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="251461" y="601981"/>
+          <a:ext cx="9309980" cy="4701540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1273534</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>107674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1470991</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>119270</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rechteck 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A6DC57E-E020-48BF-8DBB-925A8023CF80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1273534" y="6044648"/>
+          <a:ext cx="197457" cy="197126"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>365761</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>107674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>563218</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>119270</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rechteck 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C88B44B1-878A-42A6-80A6-C16952CFEB24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3122213" y="6044648"/>
+          <a:ext cx="197457" cy="197126"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1061499</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>94423</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1258956</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>106018</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rechteck 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4EFC7A4-B261-4BC4-B97A-0179E45A8382}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1061499" y="4547153"/>
+          <a:ext cx="197457" cy="197126"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -634,7 +1002,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -667,9 +1035,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -702,6 +1087,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -877,89 +1279,145 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="85.42578125" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.1328125" style="2"/>
+    <col min="2" max="2" width="156.796875" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.1328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B4" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B5" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B6" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B7" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B8" s="9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B9" s="9"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="20"/>
+      <c r="B10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11"/>
+      <c r="B11" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12"/>
+      <c r="B12" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13"/>
+      <c r="B13" s="8" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14"/>
+      <c r="B14" s="9" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" s="7" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="B24" s="23"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26" s="2" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B13" r:id="rId1" xr:uid="{93A4DDA1-4036-45FA-8B4C-A658E3D7C4D8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -967,30 +1425,32 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2"/>
-    <col min="4" max="4" width="14.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" style="2" customWidth="1"/>
-    <col min="7" max="8" width="9.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="35.46484375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.86328125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.1328125" style="2"/>
+    <col min="4" max="4" width="14.1328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.1328125" style="2" customWidth="1"/>
+    <col min="7" max="8" width="9.86328125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.53125" style="2" customWidth="1"/>
     <col min="11" max="11" width="11" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="2"/>
+    <col min="12" max="16384" width="9.1328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="5" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -1025,374 +1485,810 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="15">
-        <f>'Electrification Potential'!$G$23</f>
-        <v>0.4895213177379219</v>
+        <f>'Electrification Potential EU'!$B$92</f>
+        <v>0.1</v>
       </c>
       <c r="C2" s="15">
-        <f>'Electrification Potential'!$G$23</f>
-        <v>0.4895213177379219</v>
+        <f>'Electrification Potential EU'!$B$92</f>
+        <v>0.1</v>
       </c>
       <c r="D2" s="15">
-        <f>'Electrification Potential'!$G$23</f>
-        <v>0.4895213177379219</v>
+        <f>'Electrification Potential EU'!$B$92</f>
+        <v>0.1</v>
       </c>
       <c r="E2" s="15">
-        <f>'Electrification Potential'!$G$23</f>
-        <v>0.4895213177379219</v>
+        <f>'Electrification Potential EU'!$B$92</f>
+        <v>0.1</v>
       </c>
       <c r="F2" s="15">
-        <f>'Electrification Potential'!$G$23</f>
-        <v>0.4895213177379219</v>
+        <f>'Electrification Potential EU'!$B$92</f>
+        <v>0.1</v>
       </c>
       <c r="G2" s="15">
-        <f>'Electrification Potential'!$G$23</f>
-        <v>0.4895213177379219</v>
+        <f>'Electrification Potential EU'!$B$92</f>
+        <v>0.1</v>
       </c>
       <c r="H2" s="15">
-        <f>'Electrification Potential'!$G$23</f>
-        <v>0.4895213177379219</v>
+        <f>'Electrification Potential EU'!$B$92</f>
+        <v>0.1</v>
       </c>
       <c r="I2" s="15">
-        <f>'Electrification Potential'!$G$23</f>
-        <v>0.4895213177379219</v>
+        <f>'Electrification Potential EU'!$B$92</f>
+        <v>0.1</v>
       </c>
       <c r="J2" s="15">
-        <f>'Electrification Potential'!$G$23</f>
-        <v>0.4895213177379219</v>
+        <f>'Electrification Potential EU'!$B$92</f>
+        <v>0.1</v>
       </c>
       <c r="K2" s="15">
-        <f>'Electrification Potential'!$G$23</f>
-        <v>0.4895213177379219</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <f>'Electrification Potential EU'!$B$92</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="15">
-        <v>0</v>
-      </c>
-      <c r="C3" s="15">
-        <v>0</v>
-      </c>
-      <c r="D3" s="15">
-        <v>0</v>
-      </c>
-      <c r="E3" s="15">
-        <v>0</v>
-      </c>
-      <c r="F3" s="15">
-        <v>0</v>
-      </c>
-      <c r="G3" s="15">
-        <v>0</v>
-      </c>
-      <c r="H3" s="15">
-        <v>0</v>
-      </c>
-      <c r="I3" s="15">
-        <v>0</v>
-      </c>
-      <c r="J3" s="15">
-        <v>0</v>
-      </c>
-      <c r="K3" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="15">
-        <v>0</v>
-      </c>
-      <c r="C4" s="15">
-        <v>0</v>
-      </c>
-      <c r="D4" s="15">
-        <v>0</v>
-      </c>
-      <c r="E4" s="15">
-        <v>0</v>
-      </c>
-      <c r="F4" s="15">
-        <v>0</v>
-      </c>
-      <c r="G4" s="15">
-        <v>0</v>
-      </c>
-      <c r="H4" s="15">
-        <v>0</v>
-      </c>
-      <c r="I4" s="15">
-        <v>0</v>
-      </c>
-      <c r="J4" s="15">
-        <v>0</v>
-      </c>
-      <c r="K4" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="15">
-        <v>0</v>
-      </c>
-      <c r="C5" s="15">
-        <v>0</v>
-      </c>
-      <c r="D5" s="15">
-        <v>0</v>
-      </c>
-      <c r="E5" s="15">
-        <v>0</v>
-      </c>
-      <c r="F5" s="15">
-        <v>0</v>
-      </c>
-      <c r="G5" s="15">
-        <v>0</v>
-      </c>
-      <c r="H5" s="15">
-        <v>0</v>
-      </c>
-      <c r="I5" s="15">
-        <v>0</v>
-      </c>
-      <c r="J5" s="15">
-        <v>0</v>
-      </c>
-      <c r="K5" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="15">
-        <v>0</v>
-      </c>
-      <c r="C6" s="15">
-        <v>0</v>
-      </c>
-      <c r="D6" s="15">
-        <v>0</v>
-      </c>
-      <c r="E6" s="15">
-        <v>0</v>
-      </c>
-      <c r="F6" s="15">
-        <v>0</v>
-      </c>
-      <c r="G6" s="15">
-        <v>0</v>
-      </c>
-      <c r="H6" s="15">
-        <v>0</v>
-      </c>
-      <c r="I6" s="15">
-        <v>0</v>
-      </c>
-      <c r="J6" s="15">
-        <v>0</v>
-      </c>
-      <c r="K6" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="15">
-        <v>0</v>
-      </c>
-      <c r="C7" s="15">
-        <v>0</v>
-      </c>
-      <c r="D7" s="15">
-        <v>0</v>
-      </c>
-      <c r="E7" s="15">
-        <v>0</v>
-      </c>
-      <c r="F7" s="15">
-        <v>0</v>
-      </c>
-      <c r="G7" s="15">
-        <v>0</v>
-      </c>
-      <c r="H7" s="15">
-        <v>0</v>
-      </c>
-      <c r="I7" s="15">
-        <v>0</v>
-      </c>
-      <c r="J7" s="15">
-        <v>0</v>
-      </c>
-      <c r="K7" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="15">
-        <v>0</v>
-      </c>
-      <c r="C8" s="15">
-        <v>0</v>
-      </c>
-      <c r="D8" s="15">
-        <v>0</v>
-      </c>
-      <c r="E8" s="15">
-        <v>0</v>
-      </c>
-      <c r="F8" s="15">
-        <v>0</v>
-      </c>
-      <c r="G8" s="15">
-        <v>0</v>
-      </c>
-      <c r="H8" s="15">
-        <v>0</v>
-      </c>
-      <c r="I8" s="15">
-        <v>0</v>
-      </c>
-      <c r="J8" s="15">
-        <v>0</v>
-      </c>
-      <c r="K8" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="15">
-        <v>0</v>
-      </c>
-      <c r="C9" s="15">
-        <v>0</v>
-      </c>
-      <c r="D9" s="15">
-        <v>0</v>
-      </c>
-      <c r="E9" s="15">
-        <v>0</v>
-      </c>
-      <c r="F9" s="15">
-        <v>0</v>
-      </c>
-      <c r="G9" s="15">
-        <v>0</v>
-      </c>
-      <c r="H9" s="15">
-        <v>0</v>
-      </c>
-      <c r="I9" s="15">
-        <v>0</v>
-      </c>
-      <c r="J9" s="15">
-        <v>0</v>
-      </c>
-      <c r="K9" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="15">
-        <v>0</v>
-      </c>
-      <c r="C10" s="15">
-        <v>0</v>
-      </c>
-      <c r="D10" s="15">
-        <v>0</v>
-      </c>
-      <c r="E10" s="15">
-        <v>0</v>
-      </c>
-      <c r="F10" s="15">
-        <v>0</v>
-      </c>
-      <c r="G10" s="15">
-        <v>0</v>
-      </c>
-      <c r="H10" s="15">
-        <v>0</v>
-      </c>
-      <c r="I10" s="15">
-        <v>0</v>
-      </c>
-      <c r="J10" s="15">
-        <v>0</v>
-      </c>
-      <c r="K10" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="B11" s="2">
+        <f>1-B2</f>
+        <v>0.9</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" ref="C11:K11" si="0">1-C2</f>
+        <v>0.9</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="35.46484375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.86328125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.1328125" style="2"/>
+    <col min="4" max="4" width="14.1328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.1328125" style="2" customWidth="1"/>
+    <col min="7" max="8" width="9.86328125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.53125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.1328125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="5" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15">
+        <f>'Electrification Potential EU'!$B$93</f>
+        <v>0.99384615384615382</v>
+      </c>
+      <c r="C2" s="15">
+        <f>'Electrification Potential EU'!$B$93</f>
+        <v>0.99384615384615382</v>
+      </c>
+      <c r="D2" s="15">
+        <f>'Electrification Potential EU'!$B$93</f>
+        <v>0.99384615384615382</v>
+      </c>
+      <c r="E2" s="15">
+        <f>'Electrification Potential EU'!$B$93</f>
+        <v>0.99384615384615382</v>
+      </c>
+      <c r="F2" s="15">
+        <f>'Electrification Potential EU'!$B$93</f>
+        <v>0.99384615384615382</v>
+      </c>
+      <c r="G2" s="15">
+        <f>'Electrification Potential EU'!$B$93</f>
+        <v>0.99384615384615382</v>
+      </c>
+      <c r="H2" s="15">
+        <f>'Electrification Potential EU'!$B$93</f>
+        <v>0.99384615384615382</v>
+      </c>
+      <c r="I2" s="15">
+        <f>'Electrification Potential EU'!$B$93</f>
+        <v>0.99384615384615382</v>
+      </c>
+      <c r="J2" s="15">
+        <f>'Electrification Potential EU'!$B$93</f>
+        <v>0.99384615384615382</v>
+      </c>
+      <c r="K2" s="15">
+        <f>'Electrification Potential EU'!$B$93</f>
+        <v>0.99384615384615382</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15">
+        <v>0</v>
+      </c>
+      <c r="C3" s="15">
+        <v>0</v>
+      </c>
+      <c r="D3" s="15">
+        <v>0</v>
+      </c>
+      <c r="E3" s="15">
+        <v>0</v>
+      </c>
+      <c r="F3" s="15">
+        <v>0</v>
+      </c>
+      <c r="G3" s="15">
+        <v>0</v>
+      </c>
+      <c r="H3" s="15">
+        <v>0</v>
+      </c>
+      <c r="I3" s="15">
+        <v>0</v>
+      </c>
+      <c r="J3" s="15">
+        <v>0</v>
+      </c>
+      <c r="K3" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15">
+        <v>0</v>
+      </c>
+      <c r="C4" s="15">
+        <v>0</v>
+      </c>
+      <c r="D4" s="15">
+        <v>0</v>
+      </c>
+      <c r="E4" s="15">
+        <v>0</v>
+      </c>
+      <c r="F4" s="15">
+        <v>0</v>
+      </c>
+      <c r="G4" s="15">
+        <v>0</v>
+      </c>
+      <c r="H4" s="15">
+        <v>0</v>
+      </c>
+      <c r="I4" s="15">
+        <v>0</v>
+      </c>
+      <c r="J4" s="15">
+        <v>0</v>
+      </c>
+      <c r="K4" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15">
+        <v>0</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0</v>
+      </c>
+      <c r="D5" s="15">
+        <v>0</v>
+      </c>
+      <c r="E5" s="15">
+        <v>0</v>
+      </c>
+      <c r="F5" s="15">
+        <v>0</v>
+      </c>
+      <c r="G5" s="15">
+        <v>0</v>
+      </c>
+      <c r="H5" s="15">
+        <v>0</v>
+      </c>
+      <c r="I5" s="15">
+        <v>0</v>
+      </c>
+      <c r="J5" s="15">
+        <v>0</v>
+      </c>
+      <c r="K5" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="15">
+        <v>0</v>
+      </c>
+      <c r="C6" s="15">
+        <v>0</v>
+      </c>
+      <c r="D6" s="15">
+        <v>0</v>
+      </c>
+      <c r="E6" s="15">
+        <v>0</v>
+      </c>
+      <c r="F6" s="15">
+        <v>0</v>
+      </c>
+      <c r="G6" s="15">
+        <v>0</v>
+      </c>
+      <c r="H6" s="15">
+        <v>0</v>
+      </c>
+      <c r="I6" s="15">
+        <v>0</v>
+      </c>
+      <c r="J6" s="15">
+        <v>0</v>
+      </c>
+      <c r="K6" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="15">
+        <v>0</v>
+      </c>
+      <c r="C7" s="15">
+        <v>0</v>
+      </c>
+      <c r="D7" s="15">
+        <v>0</v>
+      </c>
+      <c r="E7" s="15">
+        <v>0</v>
+      </c>
+      <c r="F7" s="15">
+        <v>0</v>
+      </c>
+      <c r="G7" s="15">
+        <v>0</v>
+      </c>
+      <c r="H7" s="15">
+        <v>0</v>
+      </c>
+      <c r="I7" s="15">
+        <v>0</v>
+      </c>
+      <c r="J7" s="15">
+        <v>0</v>
+      </c>
+      <c r="K7" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="15">
+        <v>0</v>
+      </c>
+      <c r="C8" s="15">
+        <v>0</v>
+      </c>
+      <c r="D8" s="15">
+        <v>0</v>
+      </c>
+      <c r="E8" s="15">
+        <v>0</v>
+      </c>
+      <c r="F8" s="15">
+        <v>0</v>
+      </c>
+      <c r="G8" s="15">
+        <v>0</v>
+      </c>
+      <c r="H8" s="15">
+        <v>0</v>
+      </c>
+      <c r="I8" s="15">
+        <v>0</v>
+      </c>
+      <c r="J8" s="15">
+        <v>0</v>
+      </c>
+      <c r="K8" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="15">
+        <v>0</v>
+      </c>
+      <c r="C9" s="15">
+        <v>0</v>
+      </c>
+      <c r="D9" s="15">
+        <v>0</v>
+      </c>
+      <c r="E9" s="15">
+        <v>0</v>
+      </c>
+      <c r="F9" s="15">
+        <v>0</v>
+      </c>
+      <c r="G9" s="15">
+        <v>0</v>
+      </c>
+      <c r="H9" s="15">
+        <v>0</v>
+      </c>
+      <c r="I9" s="15">
+        <v>0</v>
+      </c>
+      <c r="J9" s="15">
+        <v>0</v>
+      </c>
+      <c r="K9" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="15">
+        <v>0</v>
+      </c>
+      <c r="C10" s="15">
+        <v>0</v>
+      </c>
+      <c r="D10" s="15">
+        <v>0</v>
+      </c>
+      <c r="E10" s="15">
+        <v>0</v>
+      </c>
+      <c r="F10" s="15">
+        <v>0</v>
+      </c>
+      <c r="G10" s="15">
+        <v>0</v>
+      </c>
+      <c r="H10" s="15">
+        <v>0</v>
+      </c>
+      <c r="I10" s="15">
+        <v>0</v>
+      </c>
+      <c r="J10" s="15">
+        <v>0</v>
+      </c>
+      <c r="K10" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="B11" s="15">
         <f>1-B2</f>
-        <v>0.51047868226207815</v>
+        <v>6.1538461538461764E-3</v>
       </c>
       <c r="C11" s="15">
         <f t="shared" ref="C11:K11" si="0">1-C2</f>
-        <v>0.51047868226207815</v>
+        <v>6.1538461538461764E-3</v>
       </c>
       <c r="D11" s="15">
         <f t="shared" si="0"/>
-        <v>0.51047868226207815</v>
+        <v>6.1538461538461764E-3</v>
       </c>
       <c r="E11" s="15">
         <f t="shared" si="0"/>
-        <v>0.51047868226207815</v>
+        <v>6.1538461538461764E-3</v>
       </c>
       <c r="F11" s="15">
         <f t="shared" si="0"/>
-        <v>0.51047868226207815</v>
+        <v>6.1538461538461764E-3</v>
       </c>
       <c r="G11" s="15">
         <f t="shared" si="0"/>
-        <v>0.51047868226207815</v>
+        <v>6.1538461538461764E-3</v>
       </c>
       <c r="H11" s="15">
         <f t="shared" si="0"/>
-        <v>0.51047868226207815</v>
+        <v>6.1538461538461764E-3</v>
       </c>
       <c r="I11" s="15">
         <f t="shared" si="0"/>
-        <v>0.51047868226207815</v>
+        <v>6.1538461538461764E-3</v>
       </c>
       <c r="J11" s="15">
         <f t="shared" si="0"/>
-        <v>0.51047868226207815</v>
+        <v>6.1538461538461764E-3</v>
       </c>
       <c r="K11" s="15">
         <f t="shared" si="0"/>
-        <v>0.51047868226207815</v>
+        <v>6.1538461538461764E-3</v>
       </c>
     </row>
   </sheetData>
@@ -1401,24 +2297,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH83"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="61.7109375" style="2" customWidth="1"/>
-    <col min="2" max="4" width="9.140625" style="2"/>
-    <col min="5" max="5" width="29.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="61.6640625" style="2" customWidth="1"/>
+    <col min="2" max="4" width="9.1328125" style="2"/>
+    <col min="5" max="5" width="29.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.53125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.1328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B1" s="10">
         <f>SUM(B4:B83)*0.31</f>
@@ -1434,7 +2332,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.45">
       <c r="E2" s="2" t="s">
         <v>98</v>
       </c>
@@ -1446,7 +2344,7 @@
         <v>109962647470260</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>17</v>
       </c>
@@ -1464,7 +2362,7 @@
         <v>116071683440830</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -1482,7 +2380,7 @@
         <v>116071683440830</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -1500,7 +2398,7 @@
         <v>134398791352540.02</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -1518,7 +2416,7 @@
         <v>140507827323110</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -1536,7 +2434,7 @@
         <v>164943971205390</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -1554,7 +2452,7 @@
         <v>549813237351299.94</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -1601,7 +2499,7 @@
       <c r="AG9" s="11"/>
       <c r="AH9" s="11"/>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
@@ -1648,7 +2546,7 @@
       <c r="AG10" s="11"/>
       <c r="AH10" s="11"/>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
@@ -1695,7 +2593,7 @@
       <c r="AG11" s="11"/>
       <c r="AH11" s="11"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
@@ -1742,7 +2640,7 @@
       <c r="AG12" s="11"/>
       <c r="AH12" s="11"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
@@ -1789,7 +2687,7 @@
       <c r="AG13" s="11"/>
       <c r="AH13" s="11"/>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
@@ -1829,7 +2727,7 @@
       <c r="AG14" s="11"/>
       <c r="AH14" s="11"/>
     </row>
-    <row r="15" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>29</v>
       </c>
@@ -1875,7 +2773,7 @@
       <c r="AG15" s="11"/>
       <c r="AH15" s="11"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
@@ -1923,7 +2821,7 @@
       <c r="AG16" s="11"/>
       <c r="AH16" s="11"/>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>31</v>
       </c>
@@ -1971,7 +2869,7 @@
       <c r="AG17" s="11"/>
       <c r="AH17" s="11"/>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>32</v>
       </c>
@@ -2019,7 +2917,7 @@
       <c r="AG18" s="11"/>
       <c r="AH18" s="11"/>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>33</v>
       </c>
@@ -2067,7 +2965,7 @@
       <c r="AG19" s="11"/>
       <c r="AH19" s="11"/>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>34</v>
       </c>
@@ -2113,7 +3011,7 @@
       <c r="AG20" s="11"/>
       <c r="AH20" s="11"/>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>35</v>
       </c>
@@ -2159,7 +3057,7 @@
       <c r="AG21" s="11"/>
       <c r="AH21" s="11"/>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>36</v>
       </c>
@@ -2176,7 +3074,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>37</v>
       </c>
@@ -2195,7 +3093,7 @@
         <v>0.4895213177379219</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>38</v>
       </c>
@@ -2232,7 +3130,7 @@
       <c r="AG24" s="11"/>
       <c r="AH24" s="11"/>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
@@ -2242,7 +3140,7 @@
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
       <c r="E25" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
@@ -2273,7 +3171,7 @@
       <c r="AG25" s="11"/>
       <c r="AH25" s="11"/>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
         <v>40</v>
       </c>
@@ -2283,7 +3181,7 @@
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
       <c r="E26" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
@@ -2315,7 +3213,7 @@
       <c r="AG26" s="11"/>
       <c r="AH26" s="11"/>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
         <v>41</v>
       </c>
@@ -2325,7 +3223,7 @@
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
@@ -2357,7 +3255,7 @@
       <c r="AG27" s="11"/>
       <c r="AH27" s="11"/>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
         <v>42</v>
       </c>
@@ -2367,7 +3265,7 @@
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
       <c r="E28" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
@@ -2399,7 +3297,7 @@
       <c r="AG28" s="11"/>
       <c r="AH28" s="11"/>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
         <v>43</v>
       </c>
@@ -2439,7 +3337,7 @@
       <c r="AG29" s="11"/>
       <c r="AH29" s="11"/>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
         <v>44</v>
       </c>
@@ -2450,7 +3348,7 @@
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
         <v>45</v>
       </c>
@@ -2489,7 +3387,7 @@
       <c r="AG31" s="11"/>
       <c r="AH31" s="11"/>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
         <v>46</v>
       </c>
@@ -2527,7 +3425,7 @@
       <c r="AG32" s="11"/>
       <c r="AH32" s="11"/>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
         <v>47</v>
       </c>
@@ -2567,7 +3465,7 @@
       <c r="AG33" s="11"/>
       <c r="AH33" s="11"/>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A34" s="2" t="s">
         <v>48</v>
       </c>
@@ -2607,7 +3505,7 @@
       <c r="AG34" s="11"/>
       <c r="AH34" s="11"/>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
         <v>49</v>
       </c>
@@ -2647,7 +3545,7 @@
       <c r="AG35" s="11"/>
       <c r="AH35" s="11"/>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
         <v>50</v>
       </c>
@@ -2687,7 +3585,7 @@
       <c r="AG36" s="11"/>
       <c r="AH36" s="11"/>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A37" s="2" t="s">
         <v>51</v>
       </c>
@@ -2698,7 +3596,7 @@
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A38" s="2" t="s">
         <v>52</v>
       </c>
@@ -2708,7 +3606,7 @@
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A39" s="2" t="s">
         <v>53</v>
       </c>
@@ -2716,7 +3614,7 @@
         <v>898648000000000</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A40" s="2" t="s">
         <v>54</v>
       </c>
@@ -2741,7 +3639,7 @@
       <c r="AF40" s="11"/>
       <c r="AG40" s="11"/>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A41" s="2" t="s">
         <v>55</v>
       </c>
@@ -2779,7 +3677,7 @@
       <c r="AG41" s="11"/>
       <c r="AH41" s="11"/>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A42" s="2" t="s">
         <v>56</v>
       </c>
@@ -2817,7 +3715,7 @@
       <c r="AG42" s="11"/>
       <c r="AH42" s="11"/>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A43" s="2" t="s">
         <v>57</v>
       </c>
@@ -2857,7 +3755,7 @@
       <c r="AG43" s="11"/>
       <c r="AH43" s="11"/>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A44" s="2" t="s">
         <v>58</v>
       </c>
@@ -2897,7 +3795,7 @@
       <c r="AG44" s="11"/>
       <c r="AH44" s="11"/>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A45" s="2" t="s">
         <v>59</v>
       </c>
@@ -2937,7 +3835,7 @@
       <c r="AG45" s="11"/>
       <c r="AH45" s="11"/>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A46" s="2" t="s">
         <v>60</v>
       </c>
@@ -2948,7 +3846,7 @@
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A47" s="2" t="s">
         <v>61</v>
       </c>
@@ -2987,7 +3885,7 @@
       <c r="AG47" s="11"/>
       <c r="AH47" s="11"/>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A48" s="2" t="s">
         <v>62</v>
       </c>
@@ -3025,7 +3923,7 @@
       <c r="AG48" s="11"/>
       <c r="AH48" s="11"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" s="2" t="s">
         <v>63</v>
       </c>
@@ -3036,7 +3934,7 @@
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" s="2" t="s">
         <v>64</v>
       </c>
@@ -3046,7 +3944,7 @@
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" s="2" t="s">
         <v>65</v>
       </c>
@@ -3054,7 +3952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" s="2" t="s">
         <v>66</v>
       </c>
@@ -3062,7 +3960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" s="2" t="s">
         <v>67</v>
       </c>
@@ -3070,7 +3968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" s="2" t="s">
         <v>68</v>
       </c>
@@ -3078,7 +3976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" s="2" t="s">
         <v>69</v>
       </c>
@@ -3086,7 +3984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" s="2" t="s">
         <v>70</v>
       </c>
@@ -3094,7 +3992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" s="2" t="s">
         <v>71</v>
       </c>
@@ -3102,7 +4000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58" s="2" t="s">
         <v>72</v>
       </c>
@@ -3110,7 +4008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59" s="2" t="s">
         <v>73</v>
       </c>
@@ -3118,7 +4016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" s="2" t="s">
         <v>74</v>
       </c>
@@ -3126,7 +4024,7 @@
         <v>2624750000000</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61" s="2" t="s">
         <v>75</v>
       </c>
@@ -3134,7 +4032,7 @@
         <v>1554500000000</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62" s="2" t="s">
         <v>76</v>
       </c>
@@ -3142,7 +4040,7 @@
         <v>2689300000000</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63" s="2" t="s">
         <v>77</v>
       </c>
@@ -3150,7 +4048,7 @@
         <v>2007990000000</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A64" s="2" t="s">
         <v>78</v>
       </c>
@@ -3158,7 +4056,7 @@
         <v>38484500000000</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A65" s="2" t="s">
         <v>79</v>
       </c>
@@ -3195,7 +4093,7 @@
       <c r="AG65" s="11"/>
       <c r="AH65" s="11"/>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A66" s="2" t="s">
         <v>80</v>
       </c>
@@ -3233,7 +4131,7 @@
       <c r="AG66" s="11"/>
       <c r="AH66" s="11"/>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A67" s="2" t="s">
         <v>81</v>
       </c>
@@ -3273,7 +4171,7 @@
       <c r="AG67" s="11"/>
       <c r="AH67" s="11"/>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A68" s="2" t="s">
         <v>82</v>
       </c>
@@ -3313,7 +4211,7 @@
       <c r="AG68" s="11"/>
       <c r="AH68" s="11"/>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A69" s="2" t="s">
         <v>83</v>
       </c>
@@ -3353,7 +4251,7 @@
       <c r="AG69" s="11"/>
       <c r="AH69" s="11"/>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A70" s="2" t="s">
         <v>84</v>
       </c>
@@ -3364,7 +4262,7 @@
       <c r="F70" s="11"/>
       <c r="G70" s="11"/>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A71" s="2" t="s">
         <v>85</v>
       </c>
@@ -3403,7 +4301,7 @@
       <c r="AG71" s="11"/>
       <c r="AH71" s="11"/>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A72" s="2" t="s">
         <v>86</v>
       </c>
@@ -3441,7 +4339,7 @@
       <c r="AG72" s="11"/>
       <c r="AH72" s="11"/>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A73" s="2" t="s">
         <v>87</v>
       </c>
@@ -3481,7 +4379,7 @@
       <c r="AG73" s="11"/>
       <c r="AH73" s="11"/>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A74" s="2" t="s">
         <v>88</v>
       </c>
@@ -3521,7 +4419,7 @@
       <c r="AG74" s="11"/>
       <c r="AH74" s="11"/>
     </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A75" s="2" t="s">
         <v>89</v>
       </c>
@@ -3561,7 +4459,7 @@
       <c r="AG75" s="11"/>
       <c r="AH75" s="11"/>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A76" s="2" t="s">
         <v>90</v>
       </c>
@@ -3601,7 +4499,7 @@
       <c r="AG76" s="11"/>
       <c r="AH76" s="11"/>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A77" s="2" t="s">
         <v>91</v>
       </c>
@@ -3612,7 +4510,7 @@
       <c r="F77" s="11"/>
       <c r="G77" s="11"/>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A78" s="2" t="s">
         <v>92</v>
       </c>
@@ -3622,7 +4520,7 @@
       <c r="E78" s="11"/>
       <c r="F78" s="11"/>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A79" s="2" t="s">
         <v>93</v>
       </c>
@@ -3659,7 +4557,7 @@
       <c r="AG79" s="11"/>
       <c r="AH79" s="11"/>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A80" s="2" t="s">
         <v>94</v>
       </c>
@@ -3697,7 +4595,7 @@
       <c r="AG80" s="11"/>
       <c r="AH80" s="11"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A81" s="2" t="s">
         <v>95</v>
       </c>
@@ -3708,7 +4606,7 @@
       <c r="F81" s="11"/>
       <c r="G81" s="11"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A82" s="2" t="s">
         <v>96</v>
       </c>
@@ -3718,7 +4616,7 @@
       <c r="E82" s="11"/>
       <c r="F82" s="11"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A83" s="2" t="s">
         <v>97</v>
       </c>
@@ -3733,30 +4631,520 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B481F9D-CCE4-45FA-AB12-48575CB8B080}">
+  <dimension ref="A2:E93"/>
+  <sheetViews>
+    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="60.46484375" customWidth="1"/>
+    <col min="2" max="2" width="40.19921875" customWidth="1"/>
+    <col min="3" max="3" width="89.796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="2"/>
+      <c r="B3" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="2"/>
+      <c r="B5" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="2"/>
+      <c r="B6" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A38" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" s="16">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>101</v>
+      </c>
+      <c r="B40" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>138</v>
+      </c>
+      <c r="B41" s="16">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>139</v>
+      </c>
+      <c r="B42" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>140</v>
+      </c>
+      <c r="B43" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>142</v>
+      </c>
+      <c r="B44" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>141</v>
+      </c>
+      <c r="B45" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>143</v>
+      </c>
+      <c r="B46" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>144</v>
+      </c>
+      <c r="B47" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>145</v>
+      </c>
+      <c r="B48" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>146</v>
+      </c>
+      <c r="B49" s="16">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B50" s="16"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B51" s="16"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A52" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>109</v>
+      </c>
+      <c r="B53" s="16">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>101</v>
+      </c>
+      <c r="B54" s="16">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>138</v>
+      </c>
+      <c r="B55" s="16">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>139</v>
+      </c>
+      <c r="B56" s="16">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>140</v>
+      </c>
+      <c r="B57" s="16">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>142</v>
+      </c>
+      <c r="B58" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>141</v>
+      </c>
+      <c r="B59" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>143</v>
+      </c>
+      <c r="B60" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>144</v>
+      </c>
+      <c r="B61" s="16">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>145</v>
+      </c>
+      <c r="B62" s="16">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>146</v>
+      </c>
+      <c r="B63" s="16">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B64" s="16"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A66" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="B66" s="17"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>109</v>
+      </c>
+      <c r="B67" s="16">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>101</v>
+      </c>
+      <c r="B68" s="16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>138</v>
+      </c>
+      <c r="B69" s="16">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>139</v>
+      </c>
+      <c r="B70" s="16">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71" s="16">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>142</v>
+      </c>
+      <c r="B72" s="16">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>141</v>
+      </c>
+      <c r="B73" s="16">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>143</v>
+      </c>
+      <c r="B74" s="16">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>144</v>
+      </c>
+      <c r="B75" s="16">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
+        <v>145</v>
+      </c>
+      <c r="B76" s="16">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
+        <v>146</v>
+      </c>
+      <c r="B77" s="16">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B78" s="16"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
+        <v>150</v>
+      </c>
+      <c r="B80" s="16">
+        <f>SUM(B71:B77)</f>
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
+        <v>149</v>
+      </c>
+      <c r="B81" s="16">
+        <f>B77/B80</f>
+        <v>0.15384615384615385</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
+        <v>156</v>
+      </c>
+      <c r="B82" s="19">
+        <f>B81*B49+(1-B81*B48)</f>
+        <v>0.99384615384615382</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A83" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A85" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="B85" s="21"/>
+      <c r="C85" s="21"/>
+      <c r="D85" s="21"/>
+      <c r="E85" s="21"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A86" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B86" s="16">
+        <f>(B40+B42)/2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A87" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B87" s="22">
+        <f>'Electrification Potential US'!G17</f>
+        <v>0.26118963298429049</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A88" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B88" s="16">
+        <f>B41</f>
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A89" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B89" s="16">
+        <f>B39</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A90" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B90" s="22">
+        <f>'Electrification Potential US'!G20</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A91" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B91" s="22">
+        <f>100%</f>
+        <v>1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A92" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B92" s="22">
+        <f>'Electrification Potential US'!G22</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A93" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B93" s="19">
+        <f>B82</f>
+        <v>0.99384615384615382</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2"/>
-    <col min="4" max="4" width="14.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" style="2" customWidth="1"/>
-    <col min="7" max="8" width="9.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="35.46484375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.86328125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.1328125" style="2"/>
+    <col min="4" max="4" width="14.1328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.1328125" style="2" customWidth="1"/>
+    <col min="7" max="8" width="9.86328125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.53125" style="2" customWidth="1"/>
     <col min="11" max="11" width="11" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="2"/>
+    <col min="12" max="16384" width="9.1328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="5" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -3791,52 +5179,52 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="15">
-        <f>'Electrification Potential'!$G$16</f>
-        <v>0.45659573790741709</v>
+        <f>'Electrification Potential EU'!$B$86</f>
+        <v>1</v>
       </c>
       <c r="C2" s="15">
-        <f>'Electrification Potential'!$G$16</f>
-        <v>0.45659573790741709</v>
+        <f>'Electrification Potential EU'!$B$86</f>
+        <v>1</v>
       </c>
       <c r="D2" s="15">
-        <f>'Electrification Potential'!$G$16</f>
-        <v>0.45659573790741709</v>
+        <f>'Electrification Potential EU'!$B$86</f>
+        <v>1</v>
       </c>
       <c r="E2" s="15">
-        <f>'Electrification Potential'!$G$16</f>
-        <v>0.45659573790741709</v>
+        <f>'Electrification Potential EU'!$B$86</f>
+        <v>1</v>
       </c>
       <c r="F2" s="15">
-        <f>'Electrification Potential'!$G$16</f>
-        <v>0.45659573790741709</v>
+        <f>'Electrification Potential EU'!$B$86</f>
+        <v>1</v>
       </c>
       <c r="G2" s="15">
-        <f>'Electrification Potential'!$G$16</f>
-        <v>0.45659573790741709</v>
+        <f>'Electrification Potential EU'!$B$86</f>
+        <v>1</v>
       </c>
       <c r="H2" s="15">
-        <f>'Electrification Potential'!$G$16</f>
-        <v>0.45659573790741709</v>
+        <f>'Electrification Potential EU'!$B$86</f>
+        <v>1</v>
       </c>
       <c r="I2" s="15">
-        <f>'Electrification Potential'!$G$16</f>
-        <v>0.45659573790741709</v>
+        <f>'Electrification Potential EU'!$B$86</f>
+        <v>1</v>
       </c>
       <c r="J2" s="15">
-        <f>'Electrification Potential'!$G$16</f>
-        <v>0.45659573790741709</v>
+        <f>'Electrification Potential EU'!$B$86</f>
+        <v>1</v>
       </c>
       <c r="K2" s="15">
-        <f>'Electrification Potential'!$G$16</f>
-        <v>0.45659573790741709</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <f>'Electrification Potential EU'!$B$86</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -3871,7 +5259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -3906,7 +5294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -3941,7 +5329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -3976,7 +5364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -4011,7 +5399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -4046,7 +5434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -4081,7 +5469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -4116,483 +5504,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="15">
         <f>1-B2</f>
-        <v>0.54340426209258297</v>
+        <v>0</v>
       </c>
       <c r="C11" s="15">
         <f t="shared" ref="C11:K11" si="0">1-C2</f>
-        <v>0.54340426209258297</v>
+        <v>0</v>
       </c>
       <c r="D11" s="15">
         <f t="shared" si="0"/>
-        <v>0.54340426209258297</v>
+        <v>0</v>
       </c>
       <c r="E11" s="15">
         <f t="shared" si="0"/>
-        <v>0.54340426209258297</v>
+        <v>0</v>
       </c>
       <c r="F11" s="15">
         <f t="shared" si="0"/>
-        <v>0.54340426209258297</v>
+        <v>0</v>
       </c>
       <c r="G11" s="15">
         <f t="shared" si="0"/>
-        <v>0.54340426209258297</v>
+        <v>0</v>
       </c>
       <c r="H11" s="15">
         <f t="shared" si="0"/>
-        <v>0.54340426209258297</v>
+        <v>0</v>
       </c>
       <c r="I11" s="15">
         <f t="shared" si="0"/>
-        <v>0.54340426209258297</v>
+        <v>0</v>
       </c>
       <c r="J11" s="15">
         <f t="shared" si="0"/>
-        <v>0.54340426209258297</v>
+        <v>0</v>
       </c>
       <c r="K11" s="15">
         <f t="shared" si="0"/>
-        <v>0.54340426209258297</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="3"/>
-  </sheetPr>
-  <dimension ref="A1:K11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2"/>
-    <col min="4" max="4" width="14.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" style="2" customWidth="1"/>
-    <col min="7" max="8" width="9.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="11" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15">
-        <f>'Electrification Potential'!$G$17</f>
-        <v>0.26118963298429049</v>
-      </c>
-      <c r="C2" s="15">
-        <f>'Electrification Potential'!$G$17</f>
-        <v>0.26118963298429049</v>
-      </c>
-      <c r="D2" s="15">
-        <f>'Electrification Potential'!$G$17</f>
-        <v>0.26118963298429049</v>
-      </c>
-      <c r="E2" s="15">
-        <f>'Electrification Potential'!$G$17</f>
-        <v>0.26118963298429049</v>
-      </c>
-      <c r="F2" s="15">
-        <f>'Electrification Potential'!$G$17</f>
-        <v>0.26118963298429049</v>
-      </c>
-      <c r="G2" s="15">
-        <f>'Electrification Potential'!$G$17</f>
-        <v>0.26118963298429049</v>
-      </c>
-      <c r="H2" s="15">
-        <f>'Electrification Potential'!$G$17</f>
-        <v>0.26118963298429049</v>
-      </c>
-      <c r="I2" s="15">
-        <f>'Electrification Potential'!$G$17</f>
-        <v>0.26118963298429049</v>
-      </c>
-      <c r="J2" s="15">
-        <f>'Electrification Potential'!$G$17</f>
-        <v>0.26118963298429049</v>
-      </c>
-      <c r="K2" s="15">
-        <f>'Electrification Potential'!$G$17</f>
-        <v>0.26118963298429049</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0</v>
-      </c>
-      <c r="K8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2">
-        <v>0</v>
-      </c>
-      <c r="K10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="15">
-        <f>1-B2</f>
-        <v>0.73881036701570957</v>
-      </c>
-      <c r="C11" s="15">
-        <f t="shared" ref="C11:K11" si="0">1-C2</f>
-        <v>0.73881036701570957</v>
-      </c>
-      <c r="D11" s="15">
-        <f t="shared" si="0"/>
-        <v>0.73881036701570957</v>
-      </c>
-      <c r="E11" s="15">
-        <f t="shared" si="0"/>
-        <v>0.73881036701570957</v>
-      </c>
-      <c r="F11" s="15">
-        <f t="shared" si="0"/>
-        <v>0.73881036701570957</v>
-      </c>
-      <c r="G11" s="15">
-        <f t="shared" si="0"/>
-        <v>0.73881036701570957</v>
-      </c>
-      <c r="H11" s="15">
-        <f t="shared" si="0"/>
-        <v>0.73881036701570957</v>
-      </c>
-      <c r="I11" s="15">
-        <f t="shared" si="0"/>
-        <v>0.73881036701570957</v>
-      </c>
-      <c r="J11" s="15">
-        <f t="shared" si="0"/>
-        <v>0.73881036701570957</v>
-      </c>
-      <c r="K11" s="15">
-        <f t="shared" si="0"/>
-        <v>0.73881036701570957</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4601,30 +5555,32 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2"/>
-    <col min="4" max="4" width="14.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" style="2" customWidth="1"/>
-    <col min="7" max="8" width="9.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="35.46484375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.86328125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.1328125" style="2"/>
+    <col min="4" max="4" width="14.1328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.1328125" style="2" customWidth="1"/>
+    <col min="7" max="8" width="9.86328125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.53125" style="2" customWidth="1"/>
     <col min="11" max="11" width="11" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="2"/>
+    <col min="12" max="16384" width="9.1328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="5" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -4659,374 +5615,374 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="15">
-        <f>'Electrification Potential'!$G$18</f>
-        <v>0.73240274577095088</v>
+        <f>'Electrification Potential EU'!$B$87</f>
+        <v>0.26118963298429049</v>
       </c>
       <c r="C2" s="15">
-        <f>'Electrification Potential'!$G$18</f>
-        <v>0.73240274577095088</v>
+        <f>'Electrification Potential EU'!$B$87</f>
+        <v>0.26118963298429049</v>
       </c>
       <c r="D2" s="15">
-        <f>'Electrification Potential'!$G$18</f>
-        <v>0.73240274577095088</v>
+        <f>'Electrification Potential EU'!$B$87</f>
+        <v>0.26118963298429049</v>
       </c>
       <c r="E2" s="15">
-        <f>'Electrification Potential'!$G$18</f>
-        <v>0.73240274577095088</v>
+        <f>'Electrification Potential EU'!$B$87</f>
+        <v>0.26118963298429049</v>
       </c>
       <c r="F2" s="15">
-        <f>'Electrification Potential'!$G$18</f>
-        <v>0.73240274577095088</v>
+        <f>'Electrification Potential EU'!$B$87</f>
+        <v>0.26118963298429049</v>
       </c>
       <c r="G2" s="15">
-        <f>'Electrification Potential'!$G$18</f>
-        <v>0.73240274577095088</v>
+        <f>'Electrification Potential EU'!$B$87</f>
+        <v>0.26118963298429049</v>
       </c>
       <c r="H2" s="15">
-        <f>'Electrification Potential'!$G$18</f>
-        <v>0.73240274577095088</v>
+        <f>'Electrification Potential EU'!$B$87</f>
+        <v>0.26118963298429049</v>
       </c>
       <c r="I2" s="15">
-        <f>'Electrification Potential'!$G$18</f>
-        <v>0.73240274577095088</v>
+        <f>'Electrification Potential EU'!$B$87</f>
+        <v>0.26118963298429049</v>
       </c>
       <c r="J2" s="15">
-        <f>'Electrification Potential'!$G$18</f>
-        <v>0.73240274577095088</v>
+        <f>'Electrification Potential EU'!$B$87</f>
+        <v>0.26118963298429049</v>
       </c>
       <c r="K2" s="15">
-        <f>'Electrification Potential'!$G$18</f>
-        <v>0.73240274577095088</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <f>'Electrification Potential EU'!$B$87</f>
+        <v>0.26118963298429049</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="15">
-        <v>0</v>
-      </c>
-      <c r="C3" s="15">
-        <v>0</v>
-      </c>
-      <c r="D3" s="15">
-        <v>0</v>
-      </c>
-      <c r="E3" s="15">
-        <v>0</v>
-      </c>
-      <c r="F3" s="15">
-        <v>0</v>
-      </c>
-      <c r="G3" s="15">
-        <v>0</v>
-      </c>
-      <c r="H3" s="15">
-        <v>0</v>
-      </c>
-      <c r="I3" s="15">
-        <v>0</v>
-      </c>
-      <c r="J3" s="15">
-        <v>0</v>
-      </c>
-      <c r="K3" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="15">
-        <v>0</v>
-      </c>
-      <c r="C4" s="15">
-        <v>0</v>
-      </c>
-      <c r="D4" s="15">
-        <v>0</v>
-      </c>
-      <c r="E4" s="15">
-        <v>0</v>
-      </c>
-      <c r="F4" s="15">
-        <v>0</v>
-      </c>
-      <c r="G4" s="15">
-        <v>0</v>
-      </c>
-      <c r="H4" s="15">
-        <v>0</v>
-      </c>
-      <c r="I4" s="15">
-        <v>0</v>
-      </c>
-      <c r="J4" s="15">
-        <v>0</v>
-      </c>
-      <c r="K4" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="15">
-        <v>0</v>
-      </c>
-      <c r="C5" s="15">
-        <v>0</v>
-      </c>
-      <c r="D5" s="15">
-        <v>0</v>
-      </c>
-      <c r="E5" s="15">
-        <v>0</v>
-      </c>
-      <c r="F5" s="15">
-        <v>0</v>
-      </c>
-      <c r="G5" s="15">
-        <v>0</v>
-      </c>
-      <c r="H5" s="15">
-        <v>0</v>
-      </c>
-      <c r="I5" s="15">
-        <v>0</v>
-      </c>
-      <c r="J5" s="15">
-        <v>0</v>
-      </c>
-      <c r="K5" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="15">
-        <v>0</v>
-      </c>
-      <c r="C6" s="15">
-        <v>0</v>
-      </c>
-      <c r="D6" s="15">
-        <v>0</v>
-      </c>
-      <c r="E6" s="15">
-        <v>0</v>
-      </c>
-      <c r="F6" s="15">
-        <v>0</v>
-      </c>
-      <c r="G6" s="15">
-        <v>0</v>
-      </c>
-      <c r="H6" s="15">
-        <v>0</v>
-      </c>
-      <c r="I6" s="15">
-        <v>0</v>
-      </c>
-      <c r="J6" s="15">
-        <v>0</v>
-      </c>
-      <c r="K6" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="15">
-        <v>0</v>
-      </c>
-      <c r="C7" s="15">
-        <v>0</v>
-      </c>
-      <c r="D7" s="15">
-        <v>0</v>
-      </c>
-      <c r="E7" s="15">
-        <v>0</v>
-      </c>
-      <c r="F7" s="15">
-        <v>0</v>
-      </c>
-      <c r="G7" s="15">
-        <v>0</v>
-      </c>
-      <c r="H7" s="15">
-        <v>0</v>
-      </c>
-      <c r="I7" s="15">
-        <v>0</v>
-      </c>
-      <c r="J7" s="15">
-        <v>0</v>
-      </c>
-      <c r="K7" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="15">
-        <v>0</v>
-      </c>
-      <c r="C8" s="15">
-        <v>0</v>
-      </c>
-      <c r="D8" s="15">
-        <v>0</v>
-      </c>
-      <c r="E8" s="15">
-        <v>0</v>
-      </c>
-      <c r="F8" s="15">
-        <v>0</v>
-      </c>
-      <c r="G8" s="15">
-        <v>0</v>
-      </c>
-      <c r="H8" s="15">
-        <v>0</v>
-      </c>
-      <c r="I8" s="15">
-        <v>0</v>
-      </c>
-      <c r="J8" s="15">
-        <v>0</v>
-      </c>
-      <c r="K8" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="15">
-        <v>0</v>
-      </c>
-      <c r="C9" s="15">
-        <v>0</v>
-      </c>
-      <c r="D9" s="15">
-        <v>0</v>
-      </c>
-      <c r="E9" s="15">
-        <v>0</v>
-      </c>
-      <c r="F9" s="15">
-        <v>0</v>
-      </c>
-      <c r="G9" s="15">
-        <v>0</v>
-      </c>
-      <c r="H9" s="15">
-        <v>0</v>
-      </c>
-      <c r="I9" s="15">
-        <v>0</v>
-      </c>
-      <c r="J9" s="15">
-        <v>0</v>
-      </c>
-      <c r="K9" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="15">
-        <v>0</v>
-      </c>
-      <c r="C10" s="15">
-        <v>0</v>
-      </c>
-      <c r="D10" s="15">
-        <v>0</v>
-      </c>
-      <c r="E10" s="15">
-        <v>0</v>
-      </c>
-      <c r="F10" s="15">
-        <v>0</v>
-      </c>
-      <c r="G10" s="15">
-        <v>0</v>
-      </c>
-      <c r="H10" s="15">
-        <v>0</v>
-      </c>
-      <c r="I10" s="15">
-        <v>0</v>
-      </c>
-      <c r="J10" s="15">
-        <v>0</v>
-      </c>
-      <c r="K10" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="15">
         <f>1-B2</f>
-        <v>0.26759725422904912</v>
+        <v>0.73881036701570957</v>
       </c>
       <c r="C11" s="15">
         <f t="shared" ref="C11:K11" si="0">1-C2</f>
-        <v>0.26759725422904912</v>
+        <v>0.73881036701570957</v>
       </c>
       <c r="D11" s="15">
         <f t="shared" si="0"/>
-        <v>0.26759725422904912</v>
+        <v>0.73881036701570957</v>
       </c>
       <c r="E11" s="15">
         <f t="shared" si="0"/>
-        <v>0.26759725422904912</v>
+        <v>0.73881036701570957</v>
       </c>
       <c r="F11" s="15">
         <f t="shared" si="0"/>
-        <v>0.26759725422904912</v>
+        <v>0.73881036701570957</v>
       </c>
       <c r="G11" s="15">
         <f t="shared" si="0"/>
-        <v>0.26759725422904912</v>
+        <v>0.73881036701570957</v>
       </c>
       <c r="H11" s="15">
         <f t="shared" si="0"/>
-        <v>0.26759725422904912</v>
+        <v>0.73881036701570957</v>
       </c>
       <c r="I11" s="15">
         <f t="shared" si="0"/>
-        <v>0.26759725422904912</v>
+        <v>0.73881036701570957</v>
       </c>
       <c r="J11" s="15">
         <f t="shared" si="0"/>
-        <v>0.26759725422904912</v>
+        <v>0.73881036701570957</v>
       </c>
       <c r="K11" s="15">
         <f t="shared" si="0"/>
-        <v>0.26759725422904912</v>
+        <v>0.73881036701570957</v>
       </c>
     </row>
   </sheetData>
@@ -5035,30 +5991,30 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2"/>
-    <col min="4" max="4" width="14.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" style="2" customWidth="1"/>
-    <col min="7" max="8" width="9.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="35.46484375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.86328125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.1328125" style="2"/>
+    <col min="4" max="4" width="14.1328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.1328125" style="2" customWidth="1"/>
+    <col min="7" max="8" width="9.86328125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.53125" style="2" customWidth="1"/>
     <col min="11" max="11" width="11" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="2"/>
+    <col min="12" max="16384" width="9.1328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="5" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -5093,52 +6049,52 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="15">
-        <f>'Electrification Potential'!$G$19</f>
-        <v>0.25084722979250818</v>
+        <f>'Electrification Potential EU'!$B$88</f>
+        <v>0.78</v>
       </c>
       <c r="C2" s="15">
-        <f>'Electrification Potential'!$G$19</f>
-        <v>0.25084722979250818</v>
+        <f>'Electrification Potential EU'!$B$88</f>
+        <v>0.78</v>
       </c>
       <c r="D2" s="15">
-        <f>'Electrification Potential'!$G$19</f>
-        <v>0.25084722979250818</v>
+        <f>'Electrification Potential EU'!$B$88</f>
+        <v>0.78</v>
       </c>
       <c r="E2" s="15">
-        <f>'Electrification Potential'!$G$19</f>
-        <v>0.25084722979250818</v>
+        <f>'Electrification Potential EU'!$B$88</f>
+        <v>0.78</v>
       </c>
       <c r="F2" s="15">
-        <f>'Electrification Potential'!$G$19</f>
-        <v>0.25084722979250818</v>
+        <f>'Electrification Potential EU'!$B$88</f>
+        <v>0.78</v>
       </c>
       <c r="G2" s="15">
-        <f>'Electrification Potential'!$G$19</f>
-        <v>0.25084722979250818</v>
+        <f>'Electrification Potential EU'!$B$88</f>
+        <v>0.78</v>
       </c>
       <c r="H2" s="15">
-        <f>'Electrification Potential'!$G$19</f>
-        <v>0.25084722979250818</v>
+        <f>'Electrification Potential EU'!$B$88</f>
+        <v>0.78</v>
       </c>
       <c r="I2" s="15">
-        <f>'Electrification Potential'!$G$19</f>
-        <v>0.25084722979250818</v>
+        <f>'Electrification Potential EU'!$B$88</f>
+        <v>0.78</v>
       </c>
       <c r="J2" s="15">
-        <f>'Electrification Potential'!$G$19</f>
-        <v>0.25084722979250818</v>
+        <f>'Electrification Potential EU'!$B$88</f>
+        <v>0.78</v>
       </c>
       <c r="K2" s="15">
-        <f>'Electrification Potential'!$G$19</f>
-        <v>0.25084722979250818</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <f>'Electrification Potential EU'!$B$88</f>
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -5173,7 +6129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -5208,7 +6164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -5243,7 +6199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -5278,7 +6234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -5313,7 +6269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -5348,7 +6304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -5383,7 +6339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -5418,49 +6374,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="15">
         <f>1-B2</f>
-        <v>0.74915277020749182</v>
+        <v>0.21999999999999997</v>
       </c>
       <c r="C11" s="15">
         <f t="shared" ref="C11:K11" si="0">1-C2</f>
-        <v>0.74915277020749182</v>
+        <v>0.21999999999999997</v>
       </c>
       <c r="D11" s="15">
         <f t="shared" si="0"/>
-        <v>0.74915277020749182</v>
+        <v>0.21999999999999997</v>
       </c>
       <c r="E11" s="15">
         <f t="shared" si="0"/>
-        <v>0.74915277020749182</v>
+        <v>0.21999999999999997</v>
       </c>
       <c r="F11" s="15">
         <f t="shared" si="0"/>
-        <v>0.74915277020749182</v>
+        <v>0.21999999999999997</v>
       </c>
       <c r="G11" s="15">
         <f t="shared" si="0"/>
-        <v>0.74915277020749182</v>
+        <v>0.21999999999999997</v>
       </c>
       <c r="H11" s="15">
         <f t="shared" si="0"/>
-        <v>0.74915277020749182</v>
+        <v>0.21999999999999997</v>
       </c>
       <c r="I11" s="15">
         <f t="shared" si="0"/>
-        <v>0.74915277020749182</v>
+        <v>0.21999999999999997</v>
       </c>
       <c r="J11" s="15">
         <f t="shared" si="0"/>
-        <v>0.74915277020749182</v>
+        <v>0.21999999999999997</v>
       </c>
       <c r="K11" s="15">
         <f t="shared" si="0"/>
-        <v>0.74915277020749182</v>
+        <v>0.21999999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -5469,30 +6425,32 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2"/>
-    <col min="4" max="4" width="14.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" style="2" customWidth="1"/>
-    <col min="7" max="8" width="9.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="35.46484375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.86328125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.1328125" style="2"/>
+    <col min="4" max="4" width="14.1328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.1328125" style="2" customWidth="1"/>
+    <col min="7" max="8" width="9.86328125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.53125" style="2" customWidth="1"/>
     <col min="11" max="11" width="11" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="2"/>
+    <col min="12" max="16384" width="9.1328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="5" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -5527,374 +6485,374 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="15">
-        <f>'Electrification Potential'!$G$20</f>
-        <v>0.1</v>
+        <f>'Electrification Potential EU'!$B$89</f>
+        <v>0.3</v>
       </c>
       <c r="C2" s="15">
-        <f>'Electrification Potential'!$G$20</f>
-        <v>0.1</v>
+        <f>'Electrification Potential EU'!$B$89</f>
+        <v>0.3</v>
       </c>
       <c r="D2" s="15">
-        <f>'Electrification Potential'!$G$20</f>
-        <v>0.1</v>
+        <f>'Electrification Potential EU'!$B$89</f>
+        <v>0.3</v>
       </c>
       <c r="E2" s="15">
-        <f>'Electrification Potential'!$G$20</f>
-        <v>0.1</v>
+        <f>'Electrification Potential EU'!$B$89</f>
+        <v>0.3</v>
       </c>
       <c r="F2" s="15">
-        <f>'Electrification Potential'!$G$20</f>
-        <v>0.1</v>
+        <f>'Electrification Potential EU'!$B$89</f>
+        <v>0.3</v>
       </c>
       <c r="G2" s="15">
-        <f>'Electrification Potential'!$G$20</f>
-        <v>0.1</v>
+        <f>'Electrification Potential EU'!$B$89</f>
+        <v>0.3</v>
       </c>
       <c r="H2" s="15">
-        <f>'Electrification Potential'!$G$20</f>
-        <v>0.1</v>
+        <f>'Electrification Potential EU'!$B$89</f>
+        <v>0.3</v>
       </c>
       <c r="I2" s="15">
-        <f>'Electrification Potential'!$G$20</f>
-        <v>0.1</v>
+        <f>'Electrification Potential EU'!$B$89</f>
+        <v>0.3</v>
       </c>
       <c r="J2" s="15">
-        <f>'Electrification Potential'!$G$20</f>
-        <v>0.1</v>
+        <f>'Electrification Potential EU'!$B$89</f>
+        <v>0.3</v>
       </c>
       <c r="K2" s="15">
-        <f>'Electrification Potential'!$G$20</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <f>'Electrification Potential EU'!$B$89</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="15">
+        <v>0</v>
+      </c>
+      <c r="C3" s="15">
+        <v>0</v>
+      </c>
+      <c r="D3" s="15">
+        <v>0</v>
+      </c>
+      <c r="E3" s="15">
+        <v>0</v>
+      </c>
+      <c r="F3" s="15">
+        <v>0</v>
+      </c>
+      <c r="G3" s="15">
+        <v>0</v>
+      </c>
+      <c r="H3" s="15">
+        <v>0</v>
+      </c>
+      <c r="I3" s="15">
+        <v>0</v>
+      </c>
+      <c r="J3" s="15">
+        <v>0</v>
+      </c>
+      <c r="K3" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="15">
+        <v>0</v>
+      </c>
+      <c r="C4" s="15">
+        <v>0</v>
+      </c>
+      <c r="D4" s="15">
+        <v>0</v>
+      </c>
+      <c r="E4" s="15">
+        <v>0</v>
+      </c>
+      <c r="F4" s="15">
+        <v>0</v>
+      </c>
+      <c r="G4" s="15">
+        <v>0</v>
+      </c>
+      <c r="H4" s="15">
+        <v>0</v>
+      </c>
+      <c r="I4" s="15">
+        <v>0</v>
+      </c>
+      <c r="J4" s="15">
+        <v>0</v>
+      </c>
+      <c r="K4" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="15">
+        <v>0</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0</v>
+      </c>
+      <c r="D5" s="15">
+        <v>0</v>
+      </c>
+      <c r="E5" s="15">
+        <v>0</v>
+      </c>
+      <c r="F5" s="15">
+        <v>0</v>
+      </c>
+      <c r="G5" s="15">
+        <v>0</v>
+      </c>
+      <c r="H5" s="15">
+        <v>0</v>
+      </c>
+      <c r="I5" s="15">
+        <v>0</v>
+      </c>
+      <c r="J5" s="15">
+        <v>0</v>
+      </c>
+      <c r="K5" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="15">
+        <v>0</v>
+      </c>
+      <c r="C6" s="15">
+        <v>0</v>
+      </c>
+      <c r="D6" s="15">
+        <v>0</v>
+      </c>
+      <c r="E6" s="15">
+        <v>0</v>
+      </c>
+      <c r="F6" s="15">
+        <v>0</v>
+      </c>
+      <c r="G6" s="15">
+        <v>0</v>
+      </c>
+      <c r="H6" s="15">
+        <v>0</v>
+      </c>
+      <c r="I6" s="15">
+        <v>0</v>
+      </c>
+      <c r="J6" s="15">
+        <v>0</v>
+      </c>
+      <c r="K6" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="15">
+        <v>0</v>
+      </c>
+      <c r="C7" s="15">
+        <v>0</v>
+      </c>
+      <c r="D7" s="15">
+        <v>0</v>
+      </c>
+      <c r="E7" s="15">
+        <v>0</v>
+      </c>
+      <c r="F7" s="15">
+        <v>0</v>
+      </c>
+      <c r="G7" s="15">
+        <v>0</v>
+      </c>
+      <c r="H7" s="15">
+        <v>0</v>
+      </c>
+      <c r="I7" s="15">
+        <v>0</v>
+      </c>
+      <c r="J7" s="15">
+        <v>0</v>
+      </c>
+      <c r="K7" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="2">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0</v>
-      </c>
-      <c r="K8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="15">
+        <v>0</v>
+      </c>
+      <c r="C8" s="15">
+        <v>0</v>
+      </c>
+      <c r="D8" s="15">
+        <v>0</v>
+      </c>
+      <c r="E8" s="15">
+        <v>0</v>
+      </c>
+      <c r="F8" s="15">
+        <v>0</v>
+      </c>
+      <c r="G8" s="15">
+        <v>0</v>
+      </c>
+      <c r="H8" s="15">
+        <v>0</v>
+      </c>
+      <c r="I8" s="15">
+        <v>0</v>
+      </c>
+      <c r="J8" s="15">
+        <v>0</v>
+      </c>
+      <c r="K8" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="2">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="15">
+        <v>0</v>
+      </c>
+      <c r="C9" s="15">
+        <v>0</v>
+      </c>
+      <c r="D9" s="15">
+        <v>0</v>
+      </c>
+      <c r="E9" s="15">
+        <v>0</v>
+      </c>
+      <c r="F9" s="15">
+        <v>0</v>
+      </c>
+      <c r="G9" s="15">
+        <v>0</v>
+      </c>
+      <c r="H9" s="15">
+        <v>0</v>
+      </c>
+      <c r="I9" s="15">
+        <v>0</v>
+      </c>
+      <c r="J9" s="15">
+        <v>0</v>
+      </c>
+      <c r="K9" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="2">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2">
-        <v>0</v>
-      </c>
-      <c r="K10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="15">
+        <v>0</v>
+      </c>
+      <c r="C10" s="15">
+        <v>0</v>
+      </c>
+      <c r="D10" s="15">
+        <v>0</v>
+      </c>
+      <c r="E10" s="15">
+        <v>0</v>
+      </c>
+      <c r="F10" s="15">
+        <v>0</v>
+      </c>
+      <c r="G10" s="15">
+        <v>0</v>
+      </c>
+      <c r="H10" s="15">
+        <v>0</v>
+      </c>
+      <c r="I10" s="15">
+        <v>0</v>
+      </c>
+      <c r="J10" s="15">
+        <v>0</v>
+      </c>
+      <c r="K10" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="15">
         <f>1-B2</f>
-        <v>0.9</v>
-      </c>
-      <c r="C11" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="C11" s="15">
         <f t="shared" ref="C11:K11" si="0">1-C2</f>
-        <v>0.9</v>
-      </c>
-      <c r="D11" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="D11" s="15">
         <f t="shared" si="0"/>
-        <v>0.9</v>
-      </c>
-      <c r="E11" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="E11" s="15">
         <f t="shared" si="0"/>
-        <v>0.9</v>
-      </c>
-      <c r="F11" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="F11" s="15">
         <f t="shared" si="0"/>
-        <v>0.9</v>
-      </c>
-      <c r="G11" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="G11" s="15">
         <f t="shared" si="0"/>
-        <v>0.9</v>
-      </c>
-      <c r="H11" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="H11" s="15">
         <f t="shared" si="0"/>
-        <v>0.9</v>
-      </c>
-      <c r="I11" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="I11" s="15">
         <f t="shared" si="0"/>
-        <v>0.9</v>
-      </c>
-      <c r="J11" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="J11" s="15">
         <f t="shared" si="0"/>
-        <v>0.9</v>
-      </c>
-      <c r="K11" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="K11" s="15">
         <f t="shared" si="0"/>
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
@@ -5903,30 +6861,32 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2"/>
-    <col min="4" max="4" width="14.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" style="2" customWidth="1"/>
-    <col min="7" max="8" width="9.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="35.46484375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.86328125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.1328125" style="2"/>
+    <col min="4" max="4" width="14.1328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.1328125" style="2" customWidth="1"/>
+    <col min="7" max="8" width="9.86328125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.53125" style="2" customWidth="1"/>
     <col min="11" max="11" width="11" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="2"/>
+    <col min="12" max="16384" width="9.1328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="5" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -5961,52 +6921,52 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="15">
-        <f>'Electrification Potential'!$G$21</f>
+        <f>'Electrification Potential EU'!$B$90</f>
         <v>0.1</v>
       </c>
       <c r="C2" s="15">
-        <f>'Electrification Potential'!$G$21</f>
+        <f>'Electrification Potential EU'!$B$90</f>
         <v>0.1</v>
       </c>
       <c r="D2" s="15">
-        <f>'Electrification Potential'!$G$21</f>
+        <f>'Electrification Potential EU'!$B$90</f>
         <v>0.1</v>
       </c>
       <c r="E2" s="15">
-        <f>'Electrification Potential'!$G$21</f>
+        <f>'Electrification Potential EU'!$B$90</f>
         <v>0.1</v>
       </c>
       <c r="F2" s="15">
-        <f>'Electrification Potential'!$G$21</f>
+        <f>'Electrification Potential EU'!$B$90</f>
         <v>0.1</v>
       </c>
       <c r="G2" s="15">
-        <f>'Electrification Potential'!$G$21</f>
+        <f>'Electrification Potential EU'!$B$90</f>
         <v>0.1</v>
       </c>
       <c r="H2" s="15">
-        <f>'Electrification Potential'!$G$21</f>
+        <f>'Electrification Potential EU'!$B$90</f>
         <v>0.1</v>
       </c>
       <c r="I2" s="15">
-        <f>'Electrification Potential'!$G$21</f>
+        <f>'Electrification Potential EU'!$B$90</f>
         <v>0.1</v>
       </c>
       <c r="J2" s="15">
-        <f>'Electrification Potential'!$G$21</f>
+        <f>'Electrification Potential EU'!$B$90</f>
         <v>0.1</v>
       </c>
       <c r="K2" s="15">
-        <f>'Electrification Potential'!$G$21</f>
+        <f>'Electrification Potential EU'!$B$90</f>
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -6041,7 +7001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -6076,7 +7036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -6111,7 +7071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -6146,7 +7106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -6181,7 +7141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -6216,7 +7176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -6251,7 +7211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -6286,7 +7246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
@@ -6337,30 +7297,32 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2"/>
-    <col min="4" max="4" width="14.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" style="2" customWidth="1"/>
-    <col min="7" max="8" width="9.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="35.46484375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.86328125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.1328125" style="2"/>
+    <col min="4" max="4" width="14.1328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.1328125" style="2" customWidth="1"/>
+    <col min="7" max="8" width="9.86328125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.53125" style="2" customWidth="1"/>
     <col min="11" max="11" width="11" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="2"/>
+    <col min="12" max="16384" width="9.1328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="5" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -6395,52 +7357,52 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="15">
-        <f>'Electrification Potential'!$G$22</f>
-        <v>0.1</v>
+        <f>'Electrification Potential EU'!$B$91</f>
+        <v>1</v>
       </c>
       <c r="C2" s="15">
-        <f>'Electrification Potential'!$G$22</f>
-        <v>0.1</v>
+        <f>'Electrification Potential EU'!$B$91</f>
+        <v>1</v>
       </c>
       <c r="D2" s="15">
-        <f>'Electrification Potential'!$G$22</f>
-        <v>0.1</v>
+        <f>'Electrification Potential EU'!$B$91</f>
+        <v>1</v>
       </c>
       <c r="E2" s="15">
-        <f>'Electrification Potential'!$G$22</f>
-        <v>0.1</v>
+        <f>'Electrification Potential EU'!$B$91</f>
+        <v>1</v>
       </c>
       <c r="F2" s="15">
-        <f>'Electrification Potential'!$G$22</f>
-        <v>0.1</v>
+        <f>'Electrification Potential EU'!$B$91</f>
+        <v>1</v>
       </c>
       <c r="G2" s="15">
-        <f>'Electrification Potential'!$G$22</f>
-        <v>0.1</v>
+        <f>'Electrification Potential EU'!$B$91</f>
+        <v>1</v>
       </c>
       <c r="H2" s="15">
-        <f>'Electrification Potential'!$G$22</f>
-        <v>0.1</v>
+        <f>'Electrification Potential EU'!$B$91</f>
+        <v>1</v>
       </c>
       <c r="I2" s="15">
-        <f>'Electrification Potential'!$G$22</f>
-        <v>0.1</v>
+        <f>'Electrification Potential EU'!$B$91</f>
+        <v>1</v>
       </c>
       <c r="J2" s="15">
-        <f>'Electrification Potential'!$G$22</f>
-        <v>0.1</v>
+        <f>'Electrification Potential EU'!$B$91</f>
+        <v>1</v>
       </c>
       <c r="K2" s="15">
-        <f>'Electrification Potential'!$G$22</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <f>'Electrification Potential EU'!$B$91</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -6475,7 +7437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -6510,7 +7472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -6545,7 +7507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -6580,7 +7542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -6615,7 +7577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -6650,7 +7612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -6685,7 +7647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -6720,49 +7682,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="2">
         <f>1-B2</f>
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" ref="C11:K11" si="0">1-C2</f>
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="0"/>
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="0"/>
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" si="0"/>
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="G11" s="2">
         <f t="shared" si="0"/>
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="H11" s="2">
         <f t="shared" si="0"/>
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="I11" s="2">
         <f t="shared" si="0"/>
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" si="0"/>
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="K11" s="2">
         <f t="shared" si="0"/>
-        <v>0.9</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
